--- a/Code/Results/Cases/Case_1_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019138555591896</v>
+        <v>1.066202212260725</v>
       </c>
       <c r="D2">
-        <v>1.037036648571694</v>
+        <v>1.043939020143241</v>
       </c>
       <c r="E2">
-        <v>1.028626057362396</v>
+        <v>1.070569660877392</v>
       </c>
       <c r="F2">
-        <v>1.03209365415322</v>
+        <v>1.079881621326585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05493940078071</v>
+        <v>1.047947696599273</v>
       </c>
       <c r="J2">
-        <v>1.040761524939092</v>
+        <v>1.071153419954699</v>
       </c>
       <c r="K2">
-        <v>1.048003035527102</v>
+        <v>1.046711474817277</v>
       </c>
       <c r="L2">
-        <v>1.039700486570957</v>
+        <v>1.073269147738497</v>
       </c>
       <c r="M2">
-        <v>1.043123271908157</v>
+        <v>1.082556511244861</v>
       </c>
       <c r="N2">
-        <v>1.042239525681521</v>
+        <v>1.072674580674049</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027679450832903</v>
+        <v>1.067850654710999</v>
       </c>
       <c r="D3">
-        <v>1.040866429598852</v>
+        <v>1.044648660636677</v>
       </c>
       <c r="E3">
-        <v>1.036245994956938</v>
+        <v>1.072085904382859</v>
       </c>
       <c r="F3">
-        <v>1.04050989937958</v>
+        <v>1.081582025877659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057755534637459</v>
+        <v>1.048382716879906</v>
       </c>
       <c r="J3">
-        <v>1.047442969031031</v>
+        <v>1.072454459943789</v>
       </c>
       <c r="K3">
-        <v>1.051001813139471</v>
+        <v>1.047232517176412</v>
       </c>
       <c r="L3">
-        <v>1.046435191152041</v>
+        <v>1.074600047880616</v>
       </c>
       <c r="M3">
-        <v>1.050649414277408</v>
+        <v>1.084072927731572</v>
       </c>
       <c r="N3">
-        <v>1.048930458190443</v>
+        <v>1.073977468289155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033021613870062</v>
+        <v>1.068915050320177</v>
       </c>
       <c r="D4">
-        <v>1.04327073982846</v>
+        <v>1.045106854064922</v>
       </c>
       <c r="E4">
-        <v>1.041017382110567</v>
+        <v>1.073065061273071</v>
       </c>
       <c r="F4">
-        <v>1.045782522716526</v>
+        <v>1.082680587360866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059504460794812</v>
+        <v>1.048661903182632</v>
       </c>
       <c r="J4">
-        <v>1.051616748611043</v>
+        <v>1.073293693770081</v>
       </c>
       <c r="K4">
-        <v>1.052873535290292</v>
+        <v>1.047568004536366</v>
       </c>
       <c r="L4">
-        <v>1.050644738608289</v>
+        <v>1.075458769725056</v>
       </c>
       <c r="M4">
-        <v>1.055358093355124</v>
+        <v>1.085051964054109</v>
       </c>
       <c r="N4">
-        <v>1.053110165016197</v>
+        <v>1.074817893923742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035226102693869</v>
+        <v>1.069361993431504</v>
       </c>
       <c r="D5">
-        <v>1.044264777077507</v>
+        <v>1.045299243537194</v>
       </c>
       <c r="E5">
-        <v>1.0429875057664</v>
+        <v>1.073476240905493</v>
       </c>
       <c r="F5">
-        <v>1.047960265387467</v>
+        <v>1.083142023384114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060223072681042</v>
+        <v>1.048778725380592</v>
       </c>
       <c r="J5">
-        <v>1.053337744990823</v>
+        <v>1.073645888041431</v>
       </c>
       <c r="K5">
-        <v>1.053644818271749</v>
+        <v>1.047708648124322</v>
       </c>
       <c r="L5">
-        <v>1.05238107615166</v>
+        <v>1.075819196724272</v>
       </c>
       <c r="M5">
-        <v>1.057301390031032</v>
+        <v>1.085463037671294</v>
       </c>
       <c r="N5">
-        <v>1.054833605408238</v>
+        <v>1.075170588351355</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035593896800103</v>
+        <v>1.06943700646988</v>
       </c>
       <c r="D6">
-        <v>1.044430724609747</v>
+        <v>1.045331532859325</v>
       </c>
       <c r="E6">
-        <v>1.043316264976244</v>
+        <v>1.073545253207844</v>
       </c>
       <c r="F6">
-        <v>1.04832370994032</v>
+        <v>1.083219477433251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060342780103946</v>
+        <v>1.048798308312943</v>
       </c>
       <c r="J6">
-        <v>1.053624792547442</v>
+        <v>1.073704986935655</v>
       </c>
       <c r="K6">
-        <v>1.053773429308579</v>
+        <v>1.047732239695007</v>
       </c>
       <c r="L6">
-        <v>1.052670717195873</v>
+        <v>1.075879680276354</v>
       </c>
       <c r="M6">
-        <v>1.057625618118055</v>
+        <v>1.085532028938325</v>
       </c>
       <c r="N6">
-        <v>1.055121060605312</v>
+        <v>1.075229771172787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0330512293829</v>
+        <v>1.068921024457847</v>
       </c>
       <c r="D7">
-        <v>1.043284086783938</v>
+        <v>1.045109425702672</v>
       </c>
       <c r="E7">
-        <v>1.041043844599546</v>
+        <v>1.073070557261078</v>
       </c>
       <c r="F7">
-        <v>1.045811771282826</v>
+        <v>1.082686754644904</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059514127151105</v>
+        <v>1.048663466314356</v>
       </c>
       <c r="J7">
-        <v>1.051639874228468</v>
+        <v>1.073298402229343</v>
       </c>
       <c r="K7">
-        <v>1.052883901393884</v>
+        <v>1.047569885372469</v>
       </c>
       <c r="L7">
-        <v>1.050668068028841</v>
+        <v>1.075463588033252</v>
       </c>
       <c r="M7">
-        <v>1.055384199183629</v>
+        <v>1.085057458842492</v>
       </c>
       <c r="N7">
-        <v>1.053133323474652</v>
+        <v>1.074822609069556</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022064928732788</v>
+        <v>1.066759785353592</v>
       </c>
       <c r="D8">
-        <v>1.038346816824749</v>
+        <v>1.044179053147745</v>
       </c>
       <c r="E8">
-        <v>1.031235707845961</v>
+        <v>1.071082493034013</v>
       </c>
       <c r="F8">
-        <v>1.034975488667827</v>
+        <v>1.080456642598851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055906881166815</v>
+        <v>1.048095192043594</v>
       </c>
       <c r="J8">
-        <v>1.043051876862655</v>
+        <v>1.071593661718508</v>
       </c>
       <c r="K8">
-        <v>1.0490312496925</v>
+        <v>1.046887909176881</v>
       </c>
       <c r="L8">
-        <v>1.04200856269391</v>
+        <v>1.073719446467504</v>
       </c>
       <c r="M8">
-        <v>1.045701653108996</v>
+        <v>1.083069450201991</v>
       </c>
       <c r="N8">
-        <v>1.044533130167522</v>
+        <v>1.073115447631659</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001152281373377</v>
+        <v>1.062933603308867</v>
       </c>
       <c r="D9">
-        <v>1.029034117054646</v>
+        <v>1.042531919907417</v>
       </c>
       <c r="E9">
-        <v>1.012613844555722</v>
+        <v>1.067563859522941</v>
       </c>
       <c r="F9">
-        <v>1.01442132733854</v>
+        <v>1.076513273700065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048942848859833</v>
+        <v>1.047076057133607</v>
       </c>
       <c r="J9">
-        <v>1.026664415129291</v>
+        <v>1.068569171130612</v>
       </c>
       <c r="K9">
-        <v>1.041673066392486</v>
+        <v>1.045673335924679</v>
       </c>
       <c r="L9">
-        <v>1.025505533023601</v>
+        <v>1.070626796847273</v>
       </c>
       <c r="M9">
-        <v>1.027284682764438</v>
+        <v>1.079549119069765</v>
       </c>
       <c r="N9">
-        <v>1.028122396358829</v>
+        <v>1.070086661920215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9859374067392807</v>
+        <v>1.060370119249275</v>
       </c>
       <c r="D10">
-        <v>1.022337914461265</v>
+        <v>1.041428505586989</v>
       </c>
       <c r="E10">
-        <v>0.9991067721462894</v>
+        <v>1.06520711821793</v>
       </c>
       <c r="F10">
-        <v>0.9995236511463407</v>
+        <v>1.073874497966734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04381714174877</v>
+        <v>1.046384492124143</v>
       </c>
       <c r="J10">
-        <v>1.014720292526047</v>
+        <v>1.066538474711359</v>
       </c>
       <c r="K10">
-        <v>1.036315233167379</v>
+        <v>1.044854820215757</v>
       </c>
       <c r="L10">
-        <v>1.013492172847817</v>
+        <v>1.0685515092186</v>
       </c>
       <c r="M10">
-        <v>1.013901511548283</v>
+        <v>1.07719001794081</v>
       </c>
       <c r="N10">
-        <v>1.016161311731478</v>
+        <v>1.068053081679122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9789848083124902</v>
+        <v>1.059256928535084</v>
       </c>
       <c r="D11">
-        <v>1.019302221503756</v>
+        <v>1.040949417534922</v>
       </c>
       <c r="E11">
-        <v>0.9929465725902333</v>
+        <v>1.064183877774679</v>
       </c>
       <c r="F11">
-        <v>0.992731158380896</v>
+        <v>1.072729382657914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04146285614521</v>
+        <v>1.046082112137603</v>
       </c>
       <c r="J11">
-        <v>1.009258752233585</v>
+        <v>1.065655624207226</v>
       </c>
       <c r="K11">
-        <v>1.033869080996455</v>
+        <v>1.044498269234489</v>
       </c>
       <c r="L11">
-        <v>1.008002743462004</v>
+        <v>1.067649550078663</v>
       </c>
       <c r="M11">
-        <v>1.007791468747262</v>
+        <v>1.076165459754481</v>
       </c>
       <c r="N11">
-        <v>1.010692015425353</v>
+        <v>1.067168977426009</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9763411547178107</v>
+        <v>1.05884294731399</v>
       </c>
       <c r="D12">
-        <v>1.018152090108775</v>
+        <v>1.040771264177009</v>
       </c>
       <c r="E12">
-        <v>0.9906062451293004</v>
+        <v>1.063803374540294</v>
       </c>
       <c r="F12">
-        <v>0.9901508361887814</v>
+        <v>1.072303645449551</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040566051315585</v>
+        <v>1.045969350942309</v>
       </c>
       <c r="J12">
-        <v>1.007181682299349</v>
+        <v>1.065327150391346</v>
       </c>
       <c r="K12">
-        <v>1.032939596204928</v>
+        <v>1.044365507274224</v>
       </c>
       <c r="L12">
-        <v>1.005915654996611</v>
+        <v>1.06731400835224</v>
       </c>
       <c r="M12">
-        <v>1.005469194944322</v>
+        <v>1.075784422192497</v>
       </c>
       <c r="N12">
-        <v>1.008611995813568</v>
+        <v>1.066840037139634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.976911108884769</v>
+        <v>1.058931770211123</v>
       </c>
       <c r="D13">
-        <v>1.018399854171796</v>
+        <v>1.040809487719307</v>
       </c>
       <c r="E13">
-        <v>0.9911107089847436</v>
+        <v>1.063885013257006</v>
       </c>
       <c r="F13">
-        <v>0.9907070228156768</v>
+        <v>1.072394985411915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04075946576244</v>
+        <v>1.045993558748304</v>
       </c>
       <c r="J13">
-        <v>1.00762949897242</v>
+        <v>1.065397633929529</v>
       </c>
       <c r="K13">
-        <v>1.033139952684882</v>
+        <v>1.044393999837525</v>
       </c>
       <c r="L13">
-        <v>1.006365604766974</v>
+        <v>1.06738600663047</v>
       </c>
       <c r="M13">
-        <v>1.005969813283199</v>
+        <v>1.075866177560721</v>
       </c>
       <c r="N13">
-        <v>1.00906044843768</v>
+        <v>1.066910620772526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.978767571290368</v>
+        <v>1.059222718849579</v>
       </c>
       <c r="D14">
-        <v>1.019207624289267</v>
+        <v>1.04093469539455</v>
       </c>
       <c r="E14">
-        <v>0.9927542184157911</v>
+        <v>1.064152434023043</v>
       </c>
       <c r="F14">
-        <v>0.9925190747316488</v>
+        <v>1.07269419913056</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04138919439667</v>
+        <v>1.046072800338459</v>
       </c>
       <c r="J14">
-        <v>1.009088079731715</v>
+        <v>1.065628483618003</v>
       </c>
       <c r="K14">
-        <v>1.033792687536308</v>
+        <v>1.044487301698815</v>
       </c>
       <c r="L14">
-        <v>1.007831235699226</v>
+        <v>1.067621824644671</v>
       </c>
       <c r="M14">
-        <v>1.007600618999519</v>
+        <v>1.076133972752599</v>
       </c>
       <c r="N14">
-        <v>1.010521100548955</v>
+        <v>1.067141798294036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9799030868617019</v>
+        <v>1.059401916206931</v>
       </c>
       <c r="D15">
-        <v>1.019702263594933</v>
+        <v>1.041011813550501</v>
       </c>
       <c r="E15">
-        <v>0.9937597528436714</v>
+        <v>1.064317143945884</v>
       </c>
       <c r="F15">
-        <v>0.9936277538062966</v>
+        <v>1.072878502437566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041774166183999</v>
+        <v>1.046121564770384</v>
       </c>
       <c r="J15">
-        <v>1.009980184519536</v>
+        <v>1.065770645331864</v>
       </c>
       <c r="K15">
-        <v>1.034192030250822</v>
+        <v>1.044544745148123</v>
       </c>
       <c r="L15">
-        <v>1.008727730377768</v>
+        <v>1.067767051465181</v>
       </c>
       <c r="M15">
-        <v>1.008598248080509</v>
+        <v>1.076298907415259</v>
       </c>
       <c r="N15">
-        <v>1.0114144722279</v>
+        <v>1.067284161893837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.986390626927673</v>
+        <v>1.060443929743194</v>
       </c>
       <c r="D16">
-        <v>1.022536343858138</v>
+        <v>1.041460273383821</v>
       </c>
       <c r="E16">
-        <v>0.9995086032348144</v>
+        <v>1.065274968219738</v>
       </c>
       <c r="F16">
-        <v>0.9999667609972148</v>
+        <v>1.073950441500091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043970378734262</v>
+        <v>1.04640449806787</v>
       </c>
       <c r="J16">
-        <v>1.015076254401939</v>
+        <v>1.066596990941778</v>
       </c>
       <c r="K16">
-        <v>1.036474760927526</v>
+        <v>1.044878438208975</v>
       </c>
       <c r="L16">
-        <v>1.013850031821405</v>
+        <v>1.068611297823449</v>
       </c>
       <c r="M16">
-        <v>1.014299936100704</v>
+        <v>1.077257949128055</v>
       </c>
       <c r="N16">
-        <v>1.016517779114064</v>
+        <v>1.0681116810093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9903583177591802</v>
+        <v>1.061096694635779</v>
       </c>
       <c r="D17">
-        <v>1.024276255850542</v>
+        <v>1.041741229563619</v>
       </c>
       <c r="E17">
-        <v>1.003027780993039</v>
+        <v>1.065875039720315</v>
       </c>
       <c r="F17">
-        <v>1.003847660960349</v>
+        <v>1.074622159531784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045310553101507</v>
+        <v>1.046581188034442</v>
       </c>
       <c r="J17">
-        <v>1.018192121103797</v>
+        <v>1.067114378628567</v>
       </c>
       <c r="K17">
-        <v>1.03787161452808</v>
+        <v>1.045087182932435</v>
       </c>
       <c r="L17">
-        <v>1.016982929697967</v>
+        <v>1.069139967552728</v>
       </c>
       <c r="M17">
-        <v>1.017788561409592</v>
+        <v>1.077858704787499</v>
       </c>
       <c r="N17">
-        <v>1.019638070704032</v>
+        <v>1.06862980344595</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9926379227536944</v>
+        <v>1.061477134986654</v>
       </c>
       <c r="D18">
-        <v>1.025278132661178</v>
+        <v>1.041904981099794</v>
       </c>
       <c r="E18">
-        <v>1.005050801393597</v>
+        <v>1.066224786194911</v>
       </c>
       <c r="F18">
-        <v>1.006078804161514</v>
+        <v>1.075013720234566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046079401364276</v>
+        <v>1.046683966083575</v>
       </c>
       <c r="J18">
-        <v>1.019981974979355</v>
+        <v>1.06741582077736</v>
       </c>
       <c r="K18">
-        <v>1.038674345963742</v>
+        <v>1.0452087350756</v>
       </c>
       <c r="L18">
-        <v>1.018782917263009</v>
+        <v>1.069448009596759</v>
       </c>
       <c r="M18">
-        <v>1.019793428053812</v>
+        <v>1.078208821795196</v>
       </c>
       <c r="N18">
-        <v>1.021430466377393</v>
+        <v>1.068931673677169</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9934095040425719</v>
+        <v>1.061606803773609</v>
       </c>
       <c r="D19">
-        <v>1.025617602353483</v>
+        <v>1.041960794954913</v>
       </c>
       <c r="E19">
-        <v>1.005735717549464</v>
+        <v>1.066343996107494</v>
       </c>
       <c r="F19">
-        <v>1.006834215791319</v>
+        <v>1.075147191836584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04633943612063</v>
+        <v>1.046718962991469</v>
       </c>
       <c r="J19">
-        <v>1.020587727139558</v>
+        <v>1.067518547199241</v>
       </c>
       <c r="K19">
-        <v>1.038946069653137</v>
+        <v>1.045250146521956</v>
       </c>
       <c r="L19">
-        <v>1.019392157909527</v>
+        <v>1.069552989684298</v>
       </c>
       <c r="M19">
-        <v>1.020472099171307</v>
+        <v>1.078328153223683</v>
       </c>
       <c r="N19">
-        <v>1.022037078775145</v>
+        <v>1.069034545982353</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9899362522831565</v>
+        <v>1.061026690931297</v>
       </c>
       <c r="D20">
-        <v>1.024090936792266</v>
+        <v>1.041711098622512</v>
       </c>
       <c r="E20">
-        <v>1.002653309944693</v>
+        <v>1.065810685233419</v>
       </c>
       <c r="F20">
-        <v>1.00343468077776</v>
+        <v>1.074550115576382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045168108361925</v>
+        <v>1.046562260092937</v>
       </c>
       <c r="J20">
-        <v>1.017860703513388</v>
+        <v>1.067058903212811</v>
       </c>
       <c r="K20">
-        <v>1.037723002541713</v>
+        <v>1.045064807839805</v>
       </c>
       <c r="L20">
-        <v>1.016649663995639</v>
+        <v>1.06908327968811</v>
       </c>
       <c r="M20">
-        <v>1.017417403138767</v>
+        <v>1.07779427985021</v>
       </c>
       <c r="N20">
-        <v>1.019306182462631</v>
+        <v>1.06857424924874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9782226341046317</v>
+        <v>1.059137055439916</v>
       </c>
       <c r="D21">
-        <v>1.018970396684882</v>
+        <v>1.040897830365453</v>
       </c>
       <c r="E21">
-        <v>0.9922717329650286</v>
+        <v>1.064073697135226</v>
       </c>
       <c r="F21">
-        <v>0.9919871047728537</v>
+        <v>1.072606099034829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041204389361937</v>
+        <v>1.046049477948248</v>
       </c>
       <c r="J21">
-        <v>1.008659943780738</v>
+        <v>1.065560519240988</v>
       </c>
       <c r="K21">
-        <v>1.033601066604887</v>
+        <v>1.044459835570642</v>
       </c>
       <c r="L21">
-        <v>1.007401013998592</v>
+        <v>1.067552396395377</v>
       </c>
       <c r="M21">
-        <v>1.007121890870181</v>
+        <v>1.076055126847266</v>
       </c>
       <c r="N21">
-        <v>1.01009235659582</v>
+        <v>1.06707373739981</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9705000287529599</v>
+        <v>1.057946109354056</v>
       </c>
       <c r="D22">
-        <v>1.015619214602845</v>
+        <v>1.040385345029061</v>
       </c>
       <c r="E22">
-        <v>0.9854393348428926</v>
+        <v>1.062979111971102</v>
       </c>
       <c r="F22">
-        <v>0.9844543942052323</v>
+        <v>1.071381553133274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03858183123696</v>
+        <v>1.045724501760079</v>
       </c>
       <c r="J22">
-        <v>1.002591918151681</v>
+        <v>1.064615273731871</v>
       </c>
       <c r="K22">
-        <v>1.030887474653177</v>
+        <v>1.044077594758031</v>
       </c>
       <c r="L22">
-        <v>1.001304867140213</v>
+        <v>1.066586890141294</v>
       </c>
       <c r="M22">
-        <v>1.000340233645624</v>
+        <v>1.074958920779702</v>
       </c>
       <c r="N22">
-        <v>1.004015713674357</v>
+        <v>1.066127149533649</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9746302708183279</v>
+        <v>1.058577727979746</v>
       </c>
       <c r="D23">
-        <v>1.017409007575486</v>
+        <v>1.040657133365532</v>
       </c>
       <c r="E23">
-        <v>0.9890922653207405</v>
+        <v>1.063559610655612</v>
       </c>
       <c r="F23">
-        <v>0.9884816542114769</v>
+        <v>1.072030927405552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039985241617961</v>
+        <v>1.045897022690811</v>
       </c>
       <c r="J23">
-        <v>1.005837388095518</v>
+        <v>1.065116668788624</v>
       </c>
       <c r="K23">
-        <v>1.032338287811883</v>
+        <v>1.044280406281851</v>
       </c>
       <c r="L23">
-        <v>1.004565045557965</v>
+        <v>1.067099009452084</v>
       </c>
       <c r="M23">
-        <v>1.003966605330858</v>
+        <v>1.075540303490783</v>
       </c>
       <c r="N23">
-        <v>1.007265792557775</v>
+        <v>1.066629256628894</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9901270722109757</v>
+        <v>1.061058323538706</v>
       </c>
       <c r="D24">
-        <v>1.02417471447063</v>
+        <v>1.041724713885678</v>
       </c>
       <c r="E24">
-        <v>1.002822608545909</v>
+        <v>1.065839765075052</v>
       </c>
       <c r="F24">
-        <v>1.00362138880433</v>
+        <v>1.07458266988361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04523251257511</v>
+        <v>1.04657081368705</v>
       </c>
       <c r="J24">
-        <v>1.018010541722026</v>
+        <v>1.067083971219998</v>
       </c>
       <c r="K24">
-        <v>1.037790190935308</v>
+        <v>1.045074918814976</v>
       </c>
       <c r="L24">
-        <v>1.016800336671338</v>
+        <v>1.069108895489205</v>
       </c>
       <c r="M24">
-        <v>1.017585205863734</v>
+        <v>1.077823391613463</v>
       </c>
       <c r="N24">
-        <v>1.019456233458712</v>
+        <v>1.068599352855373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006764407673321</v>
+        <v>1.063924947176222</v>
       </c>
       <c r="D25">
-        <v>1.031521473565645</v>
+        <v>1.042958670852036</v>
       </c>
       <c r="E25">
-        <v>1.01760490007427</v>
+        <v>1.068475400782749</v>
       </c>
       <c r="F25">
-        <v>1.019928229594211</v>
+        <v>1.077534415722696</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05082227994544</v>
+        <v>1.047341653285508</v>
       </c>
       <c r="J25">
-        <v>1.031066247465175</v>
+        <v>1.069353564814236</v>
       </c>
       <c r="K25">
-        <v>1.043649400773194</v>
+        <v>1.045988871122821</v>
       </c>
       <c r="L25">
-        <v>1.029935934267791</v>
+        <v>1.071428661336122</v>
       </c>
       <c r="M25">
-        <v>1.032224866103068</v>
+        <v>1.080461314124396</v>
       </c>
       <c r="N25">
-        <v>1.032530479801527</v>
+        <v>1.070872169532841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066202212260725</v>
+        <v>1.019138555591896</v>
       </c>
       <c r="D2">
-        <v>1.043939020143241</v>
+        <v>1.037036648571694</v>
       </c>
       <c r="E2">
-        <v>1.070569660877392</v>
+        <v>1.028626057362396</v>
       </c>
       <c r="F2">
-        <v>1.079881621326585</v>
+        <v>1.032093654153221</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047947696599273</v>
+        <v>1.054939400780709</v>
       </c>
       <c r="J2">
-        <v>1.071153419954699</v>
+        <v>1.040761524939092</v>
       </c>
       <c r="K2">
-        <v>1.046711474817277</v>
+        <v>1.048003035527102</v>
       </c>
       <c r="L2">
-        <v>1.073269147738497</v>
+        <v>1.039700486570957</v>
       </c>
       <c r="M2">
-        <v>1.082556511244861</v>
+        <v>1.043123271908158</v>
       </c>
       <c r="N2">
-        <v>1.072674580674049</v>
+        <v>1.042239525681521</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067850654710999</v>
+        <v>1.027679450832903</v>
       </c>
       <c r="D3">
-        <v>1.044648660636677</v>
+        <v>1.040866429598852</v>
       </c>
       <c r="E3">
-        <v>1.072085904382859</v>
+        <v>1.036245994956938</v>
       </c>
       <c r="F3">
-        <v>1.081582025877659</v>
+        <v>1.04050989937958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048382716879906</v>
+        <v>1.057755534637459</v>
       </c>
       <c r="J3">
-        <v>1.072454459943789</v>
+        <v>1.04744296903103</v>
       </c>
       <c r="K3">
-        <v>1.047232517176412</v>
+        <v>1.051001813139471</v>
       </c>
       <c r="L3">
-        <v>1.074600047880616</v>
+        <v>1.046435191152041</v>
       </c>
       <c r="M3">
-        <v>1.084072927731572</v>
+        <v>1.050649414277408</v>
       </c>
       <c r="N3">
-        <v>1.073977468289155</v>
+        <v>1.048930458190442</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068915050320177</v>
+        <v>1.033021613870063</v>
       </c>
       <c r="D4">
-        <v>1.045106854064922</v>
+        <v>1.04327073982846</v>
       </c>
       <c r="E4">
-        <v>1.073065061273071</v>
+        <v>1.041017382110568</v>
       </c>
       <c r="F4">
-        <v>1.082680587360866</v>
+        <v>1.045782522716526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048661903182632</v>
+        <v>1.059504460794812</v>
       </c>
       <c r="J4">
-        <v>1.073293693770081</v>
+        <v>1.051616748611043</v>
       </c>
       <c r="K4">
-        <v>1.047568004536366</v>
+        <v>1.052873535290292</v>
       </c>
       <c r="L4">
-        <v>1.075458769725056</v>
+        <v>1.05064473860829</v>
       </c>
       <c r="M4">
-        <v>1.085051964054109</v>
+        <v>1.055358093355125</v>
       </c>
       <c r="N4">
-        <v>1.074817893923742</v>
+        <v>1.053110165016198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069361993431504</v>
+        <v>1.035226102693869</v>
       </c>
       <c r="D5">
-        <v>1.045299243537194</v>
+        <v>1.044264777077506</v>
       </c>
       <c r="E5">
-        <v>1.073476240905493</v>
+        <v>1.0429875057664</v>
       </c>
       <c r="F5">
-        <v>1.083142023384114</v>
+        <v>1.047960265387466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048778725380592</v>
+        <v>1.060223072681042</v>
       </c>
       <c r="J5">
-        <v>1.073645888041431</v>
+        <v>1.053337744990823</v>
       </c>
       <c r="K5">
-        <v>1.047708648124322</v>
+        <v>1.053644818271749</v>
       </c>
       <c r="L5">
-        <v>1.075819196724272</v>
+        <v>1.052381076151659</v>
       </c>
       <c r="M5">
-        <v>1.085463037671294</v>
+        <v>1.057301390031031</v>
       </c>
       <c r="N5">
-        <v>1.075170588351355</v>
+        <v>1.054833605408238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06943700646988</v>
+        <v>1.0355938968001</v>
       </c>
       <c r="D6">
-        <v>1.045331532859325</v>
+        <v>1.044430724609746</v>
       </c>
       <c r="E6">
-        <v>1.073545253207844</v>
+        <v>1.043316264976241</v>
       </c>
       <c r="F6">
-        <v>1.083219477433251</v>
+        <v>1.048323709940316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048798308312943</v>
+        <v>1.060342780103945</v>
       </c>
       <c r="J6">
-        <v>1.073704986935655</v>
+        <v>1.053624792547438</v>
       </c>
       <c r="K6">
-        <v>1.047732239695007</v>
+        <v>1.053773429308577</v>
       </c>
       <c r="L6">
-        <v>1.075879680276354</v>
+        <v>1.052670717195869</v>
       </c>
       <c r="M6">
-        <v>1.085532028938325</v>
+        <v>1.057625618118051</v>
       </c>
       <c r="N6">
-        <v>1.075229771172787</v>
+        <v>1.055121060605309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068921024457847</v>
+        <v>1.0330512293829</v>
       </c>
       <c r="D7">
-        <v>1.045109425702672</v>
+        <v>1.043284086783938</v>
       </c>
       <c r="E7">
-        <v>1.073070557261078</v>
+        <v>1.041043844599545</v>
       </c>
       <c r="F7">
-        <v>1.082686754644904</v>
+        <v>1.045811771282826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048663466314356</v>
+        <v>1.059514127151105</v>
       </c>
       <c r="J7">
-        <v>1.073298402229343</v>
+        <v>1.051639874228467</v>
       </c>
       <c r="K7">
-        <v>1.047569885372469</v>
+        <v>1.052883901393884</v>
       </c>
       <c r="L7">
-        <v>1.075463588033252</v>
+        <v>1.05066806802884</v>
       </c>
       <c r="M7">
-        <v>1.085057458842492</v>
+        <v>1.055384199183628</v>
       </c>
       <c r="N7">
-        <v>1.074822609069556</v>
+        <v>1.053133323474652</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066759785353592</v>
+        <v>1.022064928732787</v>
       </c>
       <c r="D8">
-        <v>1.044179053147745</v>
+        <v>1.038346816824748</v>
       </c>
       <c r="E8">
-        <v>1.071082493034013</v>
+        <v>1.031235707845959</v>
       </c>
       <c r="F8">
-        <v>1.080456642598851</v>
+        <v>1.034975488667825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048095192043594</v>
+        <v>1.055906881166814</v>
       </c>
       <c r="J8">
-        <v>1.071593661718508</v>
+        <v>1.043051876862654</v>
       </c>
       <c r="K8">
-        <v>1.046887909176881</v>
+        <v>1.049031249692499</v>
       </c>
       <c r="L8">
-        <v>1.073719446467504</v>
+        <v>1.042008562693908</v>
       </c>
       <c r="M8">
-        <v>1.083069450201991</v>
+        <v>1.045701653108994</v>
       </c>
       <c r="N8">
-        <v>1.073115447631659</v>
+        <v>1.044533130167521</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062933603308867</v>
+        <v>1.001152281373378</v>
       </c>
       <c r="D9">
-        <v>1.042531919907417</v>
+        <v>1.029034117054646</v>
       </c>
       <c r="E9">
-        <v>1.067563859522941</v>
+        <v>1.012613844555722</v>
       </c>
       <c r="F9">
-        <v>1.076513273700065</v>
+        <v>1.014421327338541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047076057133607</v>
+        <v>1.048942848859833</v>
       </c>
       <c r="J9">
-        <v>1.068569171130612</v>
+        <v>1.026664415129291</v>
       </c>
       <c r="K9">
-        <v>1.045673335924679</v>
+        <v>1.041673066392486</v>
       </c>
       <c r="L9">
-        <v>1.070626796847273</v>
+        <v>1.025505533023601</v>
       </c>
       <c r="M9">
-        <v>1.079549119069765</v>
+        <v>1.027284682764439</v>
       </c>
       <c r="N9">
-        <v>1.070086661920215</v>
+        <v>1.028122396358829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060370119249275</v>
+        <v>0.9859374067392787</v>
       </c>
       <c r="D10">
-        <v>1.041428505586989</v>
+        <v>1.022337914461265</v>
       </c>
       <c r="E10">
-        <v>1.06520711821793</v>
+        <v>0.9991067721462875</v>
       </c>
       <c r="F10">
-        <v>1.073874497966734</v>
+        <v>0.9995236511463381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046384492124143</v>
+        <v>1.04381714174877</v>
       </c>
       <c r="J10">
-        <v>1.066538474711359</v>
+        <v>1.014720292526045</v>
       </c>
       <c r="K10">
-        <v>1.044854820215757</v>
+        <v>1.036315233167379</v>
       </c>
       <c r="L10">
-        <v>1.0685515092186</v>
+        <v>1.013492172847815</v>
       </c>
       <c r="M10">
-        <v>1.07719001794081</v>
+        <v>1.013901511548281</v>
       </c>
       <c r="N10">
-        <v>1.068053081679122</v>
+        <v>1.016161311731476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059256928535084</v>
+        <v>0.9789848083124896</v>
       </c>
       <c r="D11">
-        <v>1.040949417534922</v>
+        <v>1.019302221503756</v>
       </c>
       <c r="E11">
-        <v>1.064183877774679</v>
+        <v>0.9929465725902328</v>
       </c>
       <c r="F11">
-        <v>1.072729382657914</v>
+        <v>0.9927311583808957</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046082112137603</v>
+        <v>1.04146285614521</v>
       </c>
       <c r="J11">
-        <v>1.065655624207226</v>
+        <v>1.009258752233584</v>
       </c>
       <c r="K11">
-        <v>1.044498269234489</v>
+        <v>1.033869080996455</v>
       </c>
       <c r="L11">
-        <v>1.067649550078663</v>
+        <v>1.008002743462003</v>
       </c>
       <c r="M11">
-        <v>1.076165459754481</v>
+        <v>1.007791468747261</v>
       </c>
       <c r="N11">
-        <v>1.067168977426009</v>
+        <v>1.010692015425353</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05884294731399</v>
+        <v>0.9763411547178115</v>
       </c>
       <c r="D12">
-        <v>1.040771264177009</v>
+        <v>1.018152090108775</v>
       </c>
       <c r="E12">
-        <v>1.063803374540294</v>
+        <v>0.9906062451293013</v>
       </c>
       <c r="F12">
-        <v>1.072303645449551</v>
+        <v>0.9901508361887825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045969350942309</v>
+        <v>1.040566051315585</v>
       </c>
       <c r="J12">
-        <v>1.065327150391346</v>
+        <v>1.00718168229935</v>
       </c>
       <c r="K12">
-        <v>1.044365507274224</v>
+        <v>1.032939596204928</v>
       </c>
       <c r="L12">
-        <v>1.06731400835224</v>
+        <v>1.005915654996612</v>
       </c>
       <c r="M12">
-        <v>1.075784422192497</v>
+        <v>1.005469194944323</v>
       </c>
       <c r="N12">
-        <v>1.066840037139634</v>
+        <v>1.008611995813569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058931770211123</v>
+        <v>0.9769111088847691</v>
       </c>
       <c r="D13">
-        <v>1.040809487719307</v>
+        <v>1.018399854171796</v>
       </c>
       <c r="E13">
-        <v>1.063885013257006</v>
+        <v>0.9911107089847432</v>
       </c>
       <c r="F13">
-        <v>1.072394985411915</v>
+        <v>0.9907070228156767</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045993558748304</v>
+        <v>1.04075946576244</v>
       </c>
       <c r="J13">
-        <v>1.065397633929529</v>
+        <v>1.00762949897242</v>
       </c>
       <c r="K13">
-        <v>1.044393999837525</v>
+        <v>1.033139952684882</v>
       </c>
       <c r="L13">
-        <v>1.06738600663047</v>
+        <v>1.006365604766974</v>
       </c>
       <c r="M13">
-        <v>1.075866177560721</v>
+        <v>1.005969813283199</v>
       </c>
       <c r="N13">
-        <v>1.066910620772526</v>
+        <v>1.00906044843768</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059222718849579</v>
+        <v>0.978767571290367</v>
       </c>
       <c r="D14">
-        <v>1.04093469539455</v>
+        <v>1.019207624289266</v>
       </c>
       <c r="E14">
-        <v>1.064152434023043</v>
+        <v>0.9927542184157905</v>
       </c>
       <c r="F14">
-        <v>1.07269419913056</v>
+        <v>0.9925190747316479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046072800338459</v>
+        <v>1.041389194396669</v>
       </c>
       <c r="J14">
-        <v>1.065628483618003</v>
+        <v>1.009088079731715</v>
       </c>
       <c r="K14">
-        <v>1.044487301698815</v>
+        <v>1.033792687536308</v>
       </c>
       <c r="L14">
-        <v>1.067621824644671</v>
+        <v>1.007831235699225</v>
       </c>
       <c r="M14">
-        <v>1.076133972752599</v>
+        <v>1.007600618999519</v>
       </c>
       <c r="N14">
-        <v>1.067141798294036</v>
+        <v>1.010521100548954</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059401916206931</v>
+        <v>0.9799030868617011</v>
       </c>
       <c r="D15">
-        <v>1.041011813550501</v>
+        <v>1.019702263594933</v>
       </c>
       <c r="E15">
-        <v>1.064317143945884</v>
+        <v>0.9937597528436699</v>
       </c>
       <c r="F15">
-        <v>1.072878502437566</v>
+        <v>0.9936277538062952</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046121564770384</v>
+        <v>1.041774166183999</v>
       </c>
       <c r="J15">
-        <v>1.065770645331864</v>
+        <v>1.009980184519535</v>
       </c>
       <c r="K15">
-        <v>1.044544745148123</v>
+        <v>1.034192030250821</v>
       </c>
       <c r="L15">
-        <v>1.067767051465181</v>
+        <v>1.008727730377766</v>
       </c>
       <c r="M15">
-        <v>1.076298907415259</v>
+        <v>1.008598248080508</v>
       </c>
       <c r="N15">
-        <v>1.067284161893837</v>
+        <v>1.011414472227899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060443929743194</v>
+        <v>0.9863906269276728</v>
       </c>
       <c r="D16">
-        <v>1.041460273383821</v>
+        <v>1.022536343858138</v>
       </c>
       <c r="E16">
-        <v>1.065274968219738</v>
+        <v>0.9995086032348138</v>
       </c>
       <c r="F16">
-        <v>1.073950441500091</v>
+        <v>0.9999667609972142</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04640449806787</v>
+        <v>1.043970378734263</v>
       </c>
       <c r="J16">
-        <v>1.066596990941778</v>
+        <v>1.015076254401939</v>
       </c>
       <c r="K16">
-        <v>1.044878438208975</v>
+        <v>1.036474760927526</v>
       </c>
       <c r="L16">
-        <v>1.068611297823449</v>
+        <v>1.013850031821405</v>
       </c>
       <c r="M16">
-        <v>1.077257949128055</v>
+        <v>1.014299936100703</v>
       </c>
       <c r="N16">
-        <v>1.0681116810093</v>
+        <v>1.016517779114063</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061096694635779</v>
+        <v>0.9903583177591803</v>
       </c>
       <c r="D17">
-        <v>1.041741229563619</v>
+        <v>1.024276255850542</v>
       </c>
       <c r="E17">
-        <v>1.065875039720315</v>
+        <v>1.003027780993039</v>
       </c>
       <c r="F17">
-        <v>1.074622159531784</v>
+        <v>1.003847660960349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046581188034442</v>
+        <v>1.045310553101507</v>
       </c>
       <c r="J17">
-        <v>1.067114378628567</v>
+        <v>1.018192121103797</v>
       </c>
       <c r="K17">
-        <v>1.045087182932435</v>
+        <v>1.03787161452808</v>
       </c>
       <c r="L17">
-        <v>1.069139967552728</v>
+        <v>1.016982929697967</v>
       </c>
       <c r="M17">
-        <v>1.077858704787499</v>
+        <v>1.017788561409592</v>
       </c>
       <c r="N17">
-        <v>1.06862980344595</v>
+        <v>1.019638070704033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061477134986654</v>
+        <v>0.9926379227536944</v>
       </c>
       <c r="D18">
-        <v>1.041904981099794</v>
+        <v>1.025278132661178</v>
       </c>
       <c r="E18">
-        <v>1.066224786194911</v>
+        <v>1.005050801393597</v>
       </c>
       <c r="F18">
-        <v>1.075013720234566</v>
+        <v>1.006078804161515</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046683966083575</v>
+        <v>1.046079401364276</v>
       </c>
       <c r="J18">
-        <v>1.06741582077736</v>
+        <v>1.019981974979355</v>
       </c>
       <c r="K18">
-        <v>1.0452087350756</v>
+        <v>1.038674345963743</v>
       </c>
       <c r="L18">
-        <v>1.069448009596759</v>
+        <v>1.018782917263009</v>
       </c>
       <c r="M18">
-        <v>1.078208821795196</v>
+        <v>1.019793428053813</v>
       </c>
       <c r="N18">
-        <v>1.068931673677169</v>
+        <v>1.021430466377393</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061606803773609</v>
+        <v>0.993409504042571</v>
       </c>
       <c r="D19">
-        <v>1.041960794954913</v>
+        <v>1.025617602353482</v>
       </c>
       <c r="E19">
-        <v>1.066343996107494</v>
+        <v>1.005735717549463</v>
       </c>
       <c r="F19">
-        <v>1.075147191836584</v>
+        <v>1.006834215791318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046718962991469</v>
+        <v>1.046339436120629</v>
       </c>
       <c r="J19">
-        <v>1.067518547199241</v>
+        <v>1.020587727139558</v>
       </c>
       <c r="K19">
-        <v>1.045250146521956</v>
+        <v>1.038946069653137</v>
       </c>
       <c r="L19">
-        <v>1.069552989684298</v>
+        <v>1.019392157909526</v>
       </c>
       <c r="M19">
-        <v>1.078328153223683</v>
+        <v>1.020472099171306</v>
       </c>
       <c r="N19">
-        <v>1.069034545982353</v>
+        <v>1.022037078775144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061026690931297</v>
+        <v>0.9899362522831544</v>
       </c>
       <c r="D20">
-        <v>1.041711098622512</v>
+        <v>1.024090936792265</v>
       </c>
       <c r="E20">
-        <v>1.065810685233419</v>
+        <v>1.002653309944691</v>
       </c>
       <c r="F20">
-        <v>1.074550115576382</v>
+        <v>1.003434680777758</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046562260092937</v>
+        <v>1.045168108361924</v>
       </c>
       <c r="J20">
-        <v>1.067058903212811</v>
+        <v>1.017860703513386</v>
       </c>
       <c r="K20">
-        <v>1.045064807839805</v>
+        <v>1.037723002541712</v>
       </c>
       <c r="L20">
-        <v>1.06908327968811</v>
+        <v>1.016649663995637</v>
       </c>
       <c r="M20">
-        <v>1.07779427985021</v>
+        <v>1.017417403138766</v>
       </c>
       <c r="N20">
-        <v>1.06857424924874</v>
+        <v>1.01930618246263</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059137055439916</v>
+        <v>0.9782226341046328</v>
       </c>
       <c r="D21">
-        <v>1.040897830365453</v>
+        <v>1.018970396684882</v>
       </c>
       <c r="E21">
-        <v>1.064073697135226</v>
+        <v>0.9922717329650295</v>
       </c>
       <c r="F21">
-        <v>1.072606099034829</v>
+        <v>0.9919871047728548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046049477948248</v>
+        <v>1.041204389361938</v>
       </c>
       <c r="J21">
-        <v>1.065560519240988</v>
+        <v>1.00865994378074</v>
       </c>
       <c r="K21">
-        <v>1.044459835570642</v>
+        <v>1.033601066604888</v>
       </c>
       <c r="L21">
-        <v>1.067552396395377</v>
+        <v>1.007401013998593</v>
       </c>
       <c r="M21">
-        <v>1.076055126847266</v>
+        <v>1.007121890870182</v>
       </c>
       <c r="N21">
-        <v>1.06707373739981</v>
+        <v>1.010092356595821</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057946109354056</v>
+        <v>0.9705000287529603</v>
       </c>
       <c r="D22">
-        <v>1.040385345029061</v>
+        <v>1.015619214602845</v>
       </c>
       <c r="E22">
-        <v>1.062979111971102</v>
+        <v>0.9854393348428929</v>
       </c>
       <c r="F22">
-        <v>1.071381553133274</v>
+        <v>0.984454394205233</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045724501760079</v>
+        <v>1.03858183123696</v>
       </c>
       <c r="J22">
-        <v>1.064615273731871</v>
+        <v>1.002591918151682</v>
       </c>
       <c r="K22">
-        <v>1.044077594758031</v>
+        <v>1.030887474653177</v>
       </c>
       <c r="L22">
-        <v>1.066586890141294</v>
+        <v>1.001304867140213</v>
       </c>
       <c r="M22">
-        <v>1.074958920779702</v>
+        <v>1.000340233645624</v>
       </c>
       <c r="N22">
-        <v>1.066127149533649</v>
+        <v>1.004015713674357</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058577727979746</v>
+        <v>0.9746302708183265</v>
       </c>
       <c r="D23">
-        <v>1.040657133365532</v>
+        <v>1.017409007575486</v>
       </c>
       <c r="E23">
-        <v>1.063559610655612</v>
+        <v>0.9890922653207394</v>
       </c>
       <c r="F23">
-        <v>1.072030927405552</v>
+        <v>0.9884816542114759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045897022690811</v>
+        <v>1.039985241617961</v>
       </c>
       <c r="J23">
-        <v>1.065116668788624</v>
+        <v>1.005837388095517</v>
       </c>
       <c r="K23">
-        <v>1.044280406281851</v>
+        <v>1.032338287811883</v>
       </c>
       <c r="L23">
-        <v>1.067099009452084</v>
+        <v>1.004565045557964</v>
       </c>
       <c r="M23">
-        <v>1.075540303490783</v>
+        <v>1.003966605330857</v>
       </c>
       <c r="N23">
-        <v>1.066629256628894</v>
+        <v>1.007265792557773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061058323538706</v>
+        <v>0.9901270722109772</v>
       </c>
       <c r="D24">
-        <v>1.041724713885678</v>
+        <v>1.02417471447063</v>
       </c>
       <c r="E24">
-        <v>1.065839765075052</v>
+        <v>1.00282260854591</v>
       </c>
       <c r="F24">
-        <v>1.07458266988361</v>
+        <v>1.003621388804331</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04657081368705</v>
+        <v>1.045232512575111</v>
       </c>
       <c r="J24">
-        <v>1.067083971219998</v>
+        <v>1.018010541722027</v>
       </c>
       <c r="K24">
-        <v>1.045074918814976</v>
+        <v>1.037790190935308</v>
       </c>
       <c r="L24">
-        <v>1.069108895489205</v>
+        <v>1.016800336671339</v>
       </c>
       <c r="M24">
-        <v>1.077823391613463</v>
+        <v>1.017585205863735</v>
       </c>
       <c r="N24">
-        <v>1.068599352855373</v>
+        <v>1.019456233458714</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063924947176222</v>
+        <v>1.00676440767332</v>
       </c>
       <c r="D25">
-        <v>1.042958670852036</v>
+        <v>1.031521473565644</v>
       </c>
       <c r="E25">
-        <v>1.068475400782749</v>
+        <v>1.017604900074268</v>
       </c>
       <c r="F25">
-        <v>1.077534415722696</v>
+        <v>1.01992822959421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047341653285508</v>
+        <v>1.05082227994544</v>
       </c>
       <c r="J25">
-        <v>1.069353564814236</v>
+        <v>1.031066247465174</v>
       </c>
       <c r="K25">
-        <v>1.045988871122821</v>
+        <v>1.043649400773194</v>
       </c>
       <c r="L25">
-        <v>1.071428661336122</v>
+        <v>1.02993593426779</v>
       </c>
       <c r="M25">
-        <v>1.080461314124396</v>
+        <v>1.032224866103066</v>
       </c>
       <c r="N25">
-        <v>1.070872169532841</v>
+        <v>1.032530479801526</v>
       </c>
     </row>
   </sheetData>
